--- a/data/trans_bre/P44-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P44-Estudios-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_bre/P44-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P44-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,61%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,57; 1,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,18; 1,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,95; -3,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,06; 30,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,47; 11,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,28; -11,52</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,98</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,17</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,54%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,3; 0,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,37; -3,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,92; -4,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,58; 8,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,73; -28,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,14; -12,73</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,49%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,02%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,74; 17,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,33; 4,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,6; 1,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,19; 200,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,56; 39,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,38; 3,12</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,35</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,11</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,27%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; 0,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,61; -2,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,55; -6,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,55; 0,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,61; -20,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,6; -16,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P44-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P44-Estudios-trans_bre.xlsx
@@ -614,7 +614,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,37</t>
+          <t>-8,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-23,61%</t>
+          <t>-24,5%</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,95; -3,81</t>
+          <t>-13,2; -4,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,28; -11,52</t>
+          <t>-34,16; -12,96</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,17</t>
+          <t>-26,23</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-29,54%</t>
+          <t>-52,51%</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-26,92; -4,1</t>
+          <t>-54,14; -5,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,14; -12,73</t>
+          <t>-80,47; -25,22</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,3</t>
+          <t>-5,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,02%</t>
+          <t>-13,19%</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 1,54</t>
+          <t>-13,25; 2,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 3,12</t>
+          <t>-27,61; 5,39</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-10,11</t>
+          <t>-19,02</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-26,27%</t>
+          <t>-41,67%</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,55; -6,13</t>
+          <t>-40,29; -7,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,6; -16,81</t>
+          <t>-66,16; -20,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P44-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P44-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 1,66</t>
+          <t>-3,71; 1,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 1,01</t>
+          <t>-5,5; 0,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,2; -4,14</t>
+          <t>-13,24; -3,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-39,06; 30,18</t>
+          <t>-40,07; 30,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-44,47; 11,54</t>
+          <t>-45,86; 9,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,16; -12,96</t>
+          <t>-34,06; -12,08</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 0,54</t>
+          <t>-8,21; 1,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,37; -3,08</t>
+          <t>-9,36; -2,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-54,14; -5,31</t>
+          <t>-54,41; -4,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-58,58; 8,8</t>
+          <t>-58,91; 18,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,73; -28,59</t>
+          <t>-68,09; -26,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,47; -25,22</t>
+          <t>-79,36; -20,1</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 17,87</t>
+          <t>-8,44; 18,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 4,7</t>
+          <t>-13,72; 6,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 2,2</t>
+          <t>-12,77; 2,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-44,19; 200,42</t>
+          <t>-43,62; 189,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-63,56; 39,1</t>
+          <t>-61,06; 50,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 5,39</t>
+          <t>-26,19; 7,47</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 0,09</t>
+          <t>-4,69; 0,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,61; -2,15</t>
+          <t>-6,47; -2,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-40,29; -7,53</t>
+          <t>-41,61; -7,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,55; 0,8</t>
+          <t>-42,24; 3,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,61; -20,27</t>
+          <t>-50,33; -20,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,16; -20,13</t>
+          <t>-64,92; -20,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P44-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P44-Estudios-trans_bre.xlsx
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+          <t>Población que se ha realizado alguna vez una prueba para detectar el cancer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
